--- a/public/EmployeeData/datapegawai.xlsx
+++ b/public/EmployeeData/datapegawai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiddinyusfida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEC8791-C223-4765-A987-D4D21937322D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A59158-6FF2-48CF-A655-7513EBBCBE6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,111 +31,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
-  <si>
-    <t>laki-laki</t>
-  </si>
-  <si>
-    <t>08563668453</t>
-  </si>
-  <si>
-    <t>undraw_Devices_re_dxae.png</t>
-  </si>
-  <si>
-    <t>2021-07-02T15:34:10.000000Z</t>
-  </si>
-  <si>
-    <t>undraw_Charts_re_5qe9.png</t>
-  </si>
-  <si>
-    <t>2021-07-02T15:44:35.000000Z</t>
-  </si>
-  <si>
-    <t>perempuan</t>
-  </si>
-  <si>
-    <t>undraw_personal_information_re_vw8a.png</t>
-  </si>
-  <si>
-    <t>2021-07-02T15:44:55.000000Z</t>
-  </si>
-  <si>
-    <t>2021-07-02T15:44:56.000000Z</t>
-  </si>
-  <si>
-    <t>undraw_All_the_data_re_hh4w.png</t>
-  </si>
-  <si>
-    <t>2021-07-02T15:45:24.000000Z</t>
-  </si>
-  <si>
-    <t>undraw_Dashboard_re_3b76.png</t>
-  </si>
-  <si>
-    <t>2021-07-02T15:45:48.000000Z</t>
-  </si>
-  <si>
-    <t>undraw_miro_qvwm.png</t>
-  </si>
-  <si>
-    <t>2021-07-02T15:46:11.000000Z</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>user7</t>
-  </si>
-  <si>
-    <t>user8</t>
-  </si>
-  <si>
-    <t>user9</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
-    <t>user11</t>
-  </si>
-  <si>
-    <t>user12</t>
-  </si>
-  <si>
-    <t>user13</t>
-  </si>
-  <si>
-    <t>user14</t>
-  </si>
-  <si>
-    <t>user15</t>
-  </si>
-  <si>
-    <t>user16</t>
-  </si>
-  <si>
-    <t>user17</t>
-  </si>
-  <si>
-    <t>user18</t>
-  </si>
-  <si>
-    <t>user19</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+  <si>
+    <t>User 1</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>undraw_Metrics_re_6g90.png</t>
+  </si>
+  <si>
+    <t>2021-07-04T05:48:42.000000Z</t>
+  </si>
+  <si>
+    <t>User 2</t>
+  </si>
+  <si>
+    <t>User 3</t>
+  </si>
+  <si>
+    <t>User 4</t>
+  </si>
+  <si>
+    <t>User 5</t>
+  </si>
+  <si>
+    <t>User 6</t>
+  </si>
+  <si>
+    <t>User 7</t>
+  </si>
+  <si>
+    <t>User 8</t>
+  </si>
+  <si>
+    <t>User 9</t>
+  </si>
+  <si>
+    <t>User 10</t>
+  </si>
+  <si>
+    <t>User 11</t>
+  </si>
+  <si>
+    <t>User 12</t>
+  </si>
+  <si>
+    <t>User 13</t>
+  </si>
+  <si>
+    <t>User 14</t>
+  </si>
+  <si>
+    <t>User 15</t>
+  </si>
+  <si>
+    <t>User 16</t>
+  </si>
+  <si>
+    <t>User 17</t>
+  </si>
+  <si>
+    <t>User 18</t>
+  </si>
+  <si>
+    <t>User 19</t>
+  </si>
+  <si>
+    <t>User 20</t>
+  </si>
+  <si>
+    <t>User 21</t>
+  </si>
+  <si>
+    <t>User 22</t>
+  </si>
+  <si>
+    <t>User 23</t>
+  </si>
+  <si>
+    <t>User 24</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
   </si>
 </sst>
 </file>
@@ -479,25 +527,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>6</v>
+      </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -512,285 +561,325 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
         <v>2</v>
       </c>
     </row>
